--- a/sample_ppp_loan_data.xlsx
+++ b/sample_ppp_loan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimitsharma/Desktop/NYCDSA/R/R_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4FA54-B804-6546-8C84-EE826C3E9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BF328-8FFC-034C-917F-DC295B693B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" activeTab="1" xr2:uid="{813731A9-670F-9E4B-A515-33CD26B534AE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="536">
   <si>
     <t>LoanNumber</t>
   </si>
@@ -1638,6 +1638,12 @@
   </si>
   <si>
     <t>ProjectState can be used to fill null values</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>use it to fill borrower state</t>
   </si>
 </sst>
 </file>
@@ -1705,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1715,6 +1721,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F399E2D-3812-FF47-B8E8-26F522DB390C}">
   <dimension ref="A1:BA126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2052,7 +2061,7 @@
     <col min="27" max="27" width="17.83203125" customWidth="1"/>
     <col min="35" max="35" width="13.5" customWidth="1"/>
     <col min="38" max="38" width="14.83203125" customWidth="1"/>
-    <col min="44" max="44" width="14.33203125" customWidth="1"/>
+    <col min="44" max="44" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19250,363 +19259,440 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EAD39A-4C6F-FB46-A86D-8807A0566BA1}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>11</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27">
         <v>14</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>15</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
+      <c r="D32" s="6" t="s">
+        <v>535</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35">
         <v>18</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38">
         <v>19</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B44">
         <v>20</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46">
         <v>21</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B48">
         <v>22</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>23</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50">
         <v>24</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51">
         <v>25</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52">
         <v>26</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53">
         <v>27</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
     </row>

--- a/sample_ppp_loan_data.xlsx
+++ b/sample_ppp_loan_data.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimitsharma/Desktop/NYCDSA/R/R_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BF328-8FFC-034C-917F-DC295B693B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9E4B6-5E0B-814C-85AE-3373C801CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" activeTab="1" xr2:uid="{813731A9-670F-9E4B-A515-33CD26B534AE}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{813731A9-670F-9E4B-A515-33CD26B534AE}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
     <sheet name="colnames" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sample!$A$1:$BA$126</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1667,7 +1671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1698,6 +1702,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1711,7 +1727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1724,6 +1740,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2040,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F399E2D-3812-FF47-B8E8-26F522DB390C}">
   <dimension ref="A1:BA126"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2052,14 +2070,18 @@
     <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" customWidth="1"/>
+    <col min="17" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="41.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.83203125" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="0" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.1640625" customWidth="1"/>
     <col min="35" max="35" width="13.5" customWidth="1"/>
+    <col min="36" max="36" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.83203125" customWidth="1"/>
     <col min="44" max="44" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23" customWidth="1"/>
@@ -2248,6 +2270,7 @@
       <c r="G2" t="s">
         <v>56</v>
       </c>
+      <c r="H2" s="11"/>
       <c r="I2" t="s">
         <v>57</v>
       </c>
@@ -2308,7 +2331,7 @@
       <c r="AC2" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="11" t="s">
         <v>68</v>
       </c>
       <c r="AE2" t="s">
@@ -2382,6 +2405,7 @@
       <c r="G3" t="s">
         <v>75</v>
       </c>
+      <c r="H3" s="11"/>
       <c r="I3" t="s">
         <v>76</v>
       </c>
@@ -2442,7 +2466,7 @@
       <c r="AC3" t="s">
         <v>78</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="11" t="s">
         <v>68</v>
       </c>
       <c r="AE3" t="s">
@@ -2516,6 +2540,7 @@
       <c r="G4" t="s">
         <v>86</v>
       </c>
+      <c r="H4" s="11"/>
       <c r="I4" t="s">
         <v>87</v>
       </c>
@@ -2576,7 +2601,7 @@
       <c r="AC4" t="s">
         <v>94</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="11" t="s">
         <v>95</v>
       </c>
       <c r="AE4" t="s">
@@ -2650,6 +2675,7 @@
       <c r="G5" t="s">
         <v>100</v>
       </c>
+      <c r="H5" s="11"/>
       <c r="I5" t="s">
         <v>101</v>
       </c>
@@ -2710,7 +2736,7 @@
       <c r="AC5" t="s">
         <v>100</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="11" t="s">
         <v>102</v>
       </c>
       <c r="AE5" t="s">
@@ -2784,6 +2810,7 @@
       <c r="G6" t="s">
         <v>107</v>
       </c>
+      <c r="H6" s="11"/>
       <c r="J6" s="1">
         <v>44425</v>
       </c>
@@ -2838,7 +2865,7 @@
       <c r="AB6" t="s">
         <v>107</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE6" t="s">
@@ -2906,6 +2933,7 @@
       <c r="G7" t="s">
         <v>107</v>
       </c>
+      <c r="H7" s="11"/>
       <c r="J7" s="1">
         <v>44517</v>
       </c>
@@ -2960,7 +2988,7 @@
       <c r="AB7" t="s">
         <v>107</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE7" t="s">
@@ -3028,6 +3056,7 @@
       <c r="G8" t="s">
         <v>116</v>
       </c>
+      <c r="H8" s="11"/>
       <c r="I8" t="s">
         <v>117</v>
       </c>
@@ -3088,7 +3117,7 @@
       <c r="AC8" t="s">
         <v>118</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="11" t="s">
         <v>119</v>
       </c>
       <c r="AE8" t="s">
@@ -3165,6 +3194,7 @@
       <c r="G9" t="s">
         <v>107</v>
       </c>
+      <c r="H9" s="11"/>
       <c r="J9" s="1">
         <v>44251</v>
       </c>
@@ -3219,7 +3249,7 @@
       <c r="AB9" t="s">
         <v>107</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE9" t="s">
@@ -3290,6 +3320,7 @@
       <c r="G10" t="s">
         <v>107</v>
       </c>
+      <c r="H10" s="11"/>
       <c r="J10" s="1">
         <v>44425</v>
       </c>
@@ -3344,7 +3375,7 @@
       <c r="AB10" t="s">
         <v>107</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE10" t="s">
@@ -3415,6 +3446,7 @@
       <c r="G11" t="s">
         <v>107</v>
       </c>
+      <c r="H11" s="11"/>
       <c r="J11" s="1">
         <v>44307</v>
       </c>
@@ -3469,7 +3501,7 @@
       <c r="AB11" t="s">
         <v>107</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE11" t="s">
@@ -3540,6 +3572,7 @@
       <c r="G12" t="s">
         <v>107</v>
       </c>
+      <c r="H12" s="11"/>
       <c r="J12" s="1">
         <v>44517</v>
       </c>
@@ -3594,7 +3627,7 @@
       <c r="AB12" t="s">
         <v>107</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE12" t="s">
@@ -3662,6 +3695,7 @@
       <c r="G13" t="s">
         <v>107</v>
       </c>
+      <c r="H13" s="11"/>
       <c r="J13" s="1">
         <v>44425</v>
       </c>
@@ -3716,7 +3750,7 @@
       <c r="AB13" t="s">
         <v>107</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE13" t="s">
@@ -3787,6 +3821,7 @@
       <c r="G14" t="s">
         <v>107</v>
       </c>
+      <c r="H14" s="11"/>
       <c r="J14" s="1">
         <v>44517</v>
       </c>
@@ -3841,7 +3876,7 @@
       <c r="AB14" t="s">
         <v>107</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AD14" s="11" t="s">
         <v>112</v>
       </c>
       <c r="AE14" t="s">
@@ -19253,447 +19288,875 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BA126" xr:uid="{7F399E2D-3812-FF47-B8E8-26F522DB390C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EAD39A-4C6F-FB46-A86D-8807A0566BA1}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="3.5" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>19</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>20</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>22</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <v>39</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>41</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <v>42</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <v>45</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>21</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <v>47</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <v>48</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>27</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{283FF222-8315-3C40-AD89-6E1663CF09BE}">
+  <dimension ref="A1:D53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
+      <c r="D3" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
+      <c r="D4" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="D6" s="10">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="D7" s="10">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>533</v>
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="D9" s="10">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="D11" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
+      <c r="D13" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>14</v>
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="D16" s="10">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
+      <c r="D17" s="10">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="D18" s="10">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
+      <c r="D19" s="10">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
+      <c r="D20" s="10">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
+      <c r="D21" s="10">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>21</v>
+      <c r="D22" s="10">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
+      <c r="D23" s="10">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>11</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>24</v>
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="10">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="D26" s="10">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
+      <c r="A27">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>27</v>
+      <c r="A28">
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>28</v>
+      <c r="A29">
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>15</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="A30">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A32">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>18</v>
-      </c>
-      <c r="C35" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C37" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C39" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C45" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>21</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="B48">
-        <v>22</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <v>23</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <v>24</v>
-      </c>
-      <c r="C50" s="4" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <v>25</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <v>26</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <v>27</v>
-      </c>
-      <c r="C53" s="4" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sample_ppp_loan_data.xlsx
+++ b/sample_ppp_loan_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nimitsharma/Desktop/NYCDSA/R/R_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D9E4B6-5E0B-814C-85AE-3373C801CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8586C2C3-3FB5-884A-BA85-DA05CA18ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{813731A9-670F-9E4B-A515-33CD26B534AE}"/>
   </bookViews>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F399E2D-3812-FF47-B8E8-26F522DB390C}">
   <dimension ref="A1:BA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2109,7 +2109,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
